--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS.xlsx
@@ -8309,17 +8309,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3203050031</t>
+          <t>3101010010</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROSA 20KG</t>
+          <t>COMPO BIO SUBSTRATO AQUA DEPOT</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10I15</t>
+          <t>20L</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -8329,49 +8329,49 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>83.86</v>
+        <v>59.94</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>44.53</v>
+        <v>24.76</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>20.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>-14</v>
+        <v>96</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>0</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>0</v>
@@ -8383,34 +8383,34 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -14 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 1472 días.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/05/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3101010010</t>
+          <t>3203050031</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO SUBSTRATO AQUA DEPOT</t>
+          <t>SACO MARMOLINA ROSA 20KG</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>20L</t>
+          <t>10I15</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -8420,49 +8420,49 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>59.94</v>
+        <v>83.86</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>24.76</v>
+        <v>44.53</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8.800000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>96</v>
+        <v>-14</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>0</v>
@@ -8474,17 +8474,17 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 1472 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -14 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -10828,17 +10828,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>3101010008</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>10L</t>
+          <t>9I12</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -10848,25 +10848,25 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>6.58</v>
+        <v>5.99</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>2.96</v>
+        <v>2.48</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>0</v>
@@ -10875,16 +10875,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N46" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -10919,17 +10919,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3101010008</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
+          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>9I12</t>
+          <t>10L</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -10939,43 +10939,43 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H47" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I47" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J47" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N47" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0</v>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -11173,32 +11173,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -11217,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -11226,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
@@ -11264,24 +11256,16 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 500L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>5I10</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -11308,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -11317,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
@@ -11355,24 +11339,32 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MANTILLO 500L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1M3</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -11391,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -11400,19 +11392,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T4" s="9" t="inlineStr">
         <is>
@@ -11421,12 +11413,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -11438,17 +11430,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3203050002</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
+          <t>BIG BAG MARMOLINA BLANCA 500KG (NO VENTA)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>20I40</t>
+          <t>12I18</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -11482,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -11491,16 +11483,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>55.56</v>
+        <v>13.33</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>0</v>
@@ -11517,7 +11509,7 @@
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 11/04/2025</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -11534,7 +11526,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L (NO VENTA)</t>
+          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -11565,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -11574,19 +11566,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>13.33</v>
+        <v>102.22</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T6" s="9" t="inlineStr">
         <is>
@@ -11595,12 +11587,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -11612,16 +11604,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3203050002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
+          <t>BIG BAG CANTO RODADO BLANCO 500KG</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>20I40</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -11657,19 +11657,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>102.22</v>
+        <v>55.56</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T7" s="9" t="inlineStr">
         <is>
@@ -11678,12 +11678,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 11/04/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -11778,32 +11778,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>1M3</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG RECEBO CESPED 650L (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -11822,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -11831,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
@@ -11852,7 +11844,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 458.74€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -11869,24 +11861,32 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 650L (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 500L (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>5I10</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -11914,19 +11914,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>102.22</v>
+        <v>13.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9" t="inlineStr">
         <is>
@@ -11935,12 +11935,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 144.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/05/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
